--- a/2022/Symphony/Others/Emergency Format/Need FOC from Rajshahi zone.xlsx
+++ b/2022/Symphony/Others/Emergency Format/Need FOC from Rajshahi zone.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Symphony-2022\March'22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Symphony\Others\Emergency Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>Dealer Name</t>
   </si>
@@ -55,24 +55,6 @@
     <t>FOC Support for Inactive Handset</t>
   </si>
   <si>
-    <t>Battery can't start mobile</t>
-  </si>
-  <si>
-    <t>B67</t>
-  </si>
-  <si>
-    <t>Feroz Telecom</t>
-  </si>
-  <si>
-    <t>Kur-00481357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inactive </t>
-  </si>
-  <si>
-    <t>Mugdho Corporation</t>
-  </si>
-  <si>
     <t>Display Broken</t>
   </si>
   <si>
@@ -94,21 +76,9 @@
     <t>B69</t>
   </si>
   <si>
-    <t>Nat-03191962</t>
-  </si>
-  <si>
     <t>Breakage</t>
   </si>
   <si>
-    <t>Nat-03204082</t>
-  </si>
-  <si>
-    <t>D54(+)</t>
-  </si>
-  <si>
-    <t>Nat-03188139</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -142,9 +112,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>D41</t>
-  </si>
-  <si>
     <t>No of Times HS Recuived</t>
   </si>
   <si>
@@ -154,22 +121,34 @@
     <t>FOC</t>
   </si>
   <si>
-    <t>Raj-03211774</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Inactive HS of Retailer</t>
   </si>
   <si>
-    <t>Nat-03204151</t>
-  </si>
-  <si>
-    <t>Nat-03204155</t>
-  </si>
-  <si>
-    <t>Nat-03204161</t>
+    <t>Nat-03235176</t>
+  </si>
+  <si>
+    <t>20/03/2022</t>
+  </si>
+  <si>
+    <t>Nat-03228708</t>
+  </si>
+  <si>
+    <t>Nat-03233108</t>
+  </si>
+  <si>
+    <t>15/03/2022</t>
+  </si>
+  <si>
+    <t>Nat-03233123</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>Nat-03235163</t>
   </si>
 </sst>
 </file>
@@ -726,7 +705,7 @@
   <dimension ref="A4:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -781,64 +760,28 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="12">
-        <v>355645524538942</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12">
-        <v>357559442869446</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="12">
-        <v>356035118169602</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
@@ -864,10 +807,10 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="J12" s="24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -878,10 +821,10 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="J13" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -926,7 +869,7 @@
   <dimension ref="A4:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G7"/>
+      <selection activeCell="A7" sqref="A7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -985,24 +928,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="21">
-        <v>359011480640261</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -1128,7 +1059,7 @@
   <dimension ref="A2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1069,7 @@
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -1150,211 +1081,249 @@
   <sheetData>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D3" s="28">
-        <v>357599105050983</v>
+        <v>355645524723825</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="29">
-        <v>44605</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J3" s="27">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="K3" s="27">
         <v>1</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D4" s="28">
-        <v>357559442797787</v>
+        <v>355645525981869</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F4" s="29">
-        <v>44595</v>
+        <v>44776</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J4" s="27">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K4" s="27">
         <v>1</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D5" s="28">
-        <v>355645524540047</v>
+        <v>357559442914069</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="29">
-        <v>44595</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J5" s="27">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D6" s="28">
-        <v>356035118168083</v>
+        <v>357559442914101</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="29">
-        <v>44595</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J6" s="27">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K6" s="27">
         <v>1</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="25"/>
+      <c r="A7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="28">
+        <v>350954043645401</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" s="25"/>
